--- a/res/page/优惠管理/SellPage.xlsx
+++ b/res/page/优惠管理/SellPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>别名</t>
   </si>
@@ -132,6 +132,18 @@
     <t>//*[@id="app"]//label[contains(text(),'描述')]/following-sibling::*[1]//textarea</t>
   </si>
   <si>
+    <t>选择搜索项</t>
+  </si>
+  <si>
+    <t>//div[@class='form-group']//input[@placeholder='请选择']</t>
+  </si>
+  <si>
+    <t>搜索框商家券名称</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='商家券名称']</t>
+  </si>
+  <si>
     <t>搜索框</t>
   </si>
   <si>
@@ -178,6 +190,27 @@
   </si>
   <si>
     <t>//*[@id="app"]//label[contains(text(),'退款额')]/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>导入显示框</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']</t>
+  </si>
+  <si>
+    <t>选择文件</t>
+  </si>
+  <si>
+    <t>//label[text()='选择文件']/following-sibling::*[1]/input</t>
+  </si>
+  <si>
+    <t>关闭-提示</t>
+  </si>
+  <si>
+    <t>//button[text()='关闭']</t>
+  </si>
+  <si>
+    <t>售卖管理列表</t>
   </si>
 </sst>
 </file>
@@ -224,6 +257,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -233,21 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,31 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,63 +387,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,19 +409,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,163 +529,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,15 +663,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,17 +687,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +706,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,137 +735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +885,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1414,73 +1450,73 @@
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="1:3">
-      <c r="A21" s="4" t="s">
+    <row r="21" ht="27" customHeight="1" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="1:3">
-      <c r="A22" s="4" t="s">
+    <row r="22" ht="27" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="21" customHeight="1" spans="1:3">
+    <row r="23" ht="24" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1" spans="1:3">
-      <c r="A25" t="s">
+    <row r="25" ht="21" customHeight="1" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1490,14 +1526,80 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1" spans="1:3">
+    <row r="26" ht="24" customHeight="1" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="26" customHeight="1" spans="1:3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="26" customHeight="1" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="26" customHeight="1" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" ht="26" customHeight="1" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/res/page/优惠管理/SellPage.xlsx
+++ b/res/page/优惠管理/SellPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>//li/a[@id='4300']</t>
   </si>
   <si>
-    <t>销售商家券</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "销售商家券")]</t>
+    <t>销售优惠券</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "销售优惠券")]</t>
   </si>
   <si>
     <t>批量销售</t>
@@ -66,10 +66,10 @@
     <t>//*[@id="app"]//a[contains(text(), "导出售卖记录")]</t>
   </si>
   <si>
-    <t>导出商家券编码</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "导出商家券编码")]</t>
+    <t>导出优惠券编码</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出优惠券编码")]</t>
   </si>
   <si>
     <t>批量退款</t>
@@ -78,10 +78,10 @@
     <t>//*[@id="app"]//a[contains(text(), "批量退款")]</t>
   </si>
   <si>
-    <t>商家券名称</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'商家券名称')]/following-sibling::*[1]//input</t>
+    <t>优惠券名称</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[contains(text(),'优惠券名称')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>商户名称</t>
@@ -138,10 +138,10 @@
     <t>//div[@class='form-group']//input[@placeholder='请选择']</t>
   </si>
   <si>
-    <t>搜索框商家券名称</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='商家券名称']</t>
+    <t>搜索框优惠券名称</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='优惠券名称']</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -251,29 +251,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,29 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +340,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -356,8 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,13 +393,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -409,6 +409,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,13 +451,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,157 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +614,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +672,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -674,24 +692,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,7 +711,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,45 +723,45 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,101 +771,101 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,9 +885,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1450,13 +1447,13 @@
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
     </row>
